--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -1,245 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
+    <sheet name="用户登录" sheetId="2" r:id="rId2"/>
+    <sheet name="首页" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>接口名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查询用户账户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>类名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UserController</t>
   </si>
   <si>
     <t>接口路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/user/find/{userName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接口类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>入参</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对应业务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>control</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>json key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否必填</t>
   </si>
   <si>
     <t>查询新闻数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查询新闻服务器的应用服务接口
 String uri = Contants.NEWS_SERVER_URL + "q=cnn_score:[-2%20TO%20-…..</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreditWarningController.getViolation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreditWarningServicesImpl.getLastingBondViolationNews</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当前页数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数据出参</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UserAccount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAccountBean</t>
+  </si>
+  <si>
+    <t>用户账户类</t>
   </si>
   <si>
     <t>ACCOUNT_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>账户ID</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NAME</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>账户名</t>
+  </si>
+  <si>
+    <t>ACCOUNT_PASSWORD</t>
   </si>
   <si>
     <t>账户密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ACCOUNT_MOBILE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
   </si>
   <si>
     <t>用户ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>标记出参</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1：成功，2：失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>message</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserAccountBean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账户类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_PASSWORD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台信息</t>
+  </si>
+  <si>
+    <t>登录页</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>accountPasssword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -247,14 +204,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,11 +218,146 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +382,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -303,14 +579,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -318,64 +594,303 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,12 +902,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -405,43 +914,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,7 +1045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,7 +1080,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,42 +1283,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="38.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="1" customHeight="1"/>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -771,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -779,16 +1334,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1"/>
+    <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -798,81 +1353,81 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="19"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="15"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -882,230 +1437,232 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" customHeight="1"/>
+    <row r="27" customHeight="1"/>
+    <row r="28" customHeight="1"/>
+    <row r="29" customHeight="1"/>
+    <row r="30" customHeight="1"/>
+    <row r="31" customHeight="1"/>
+    <row r="32" customHeight="1"/>
+    <row r="33" customHeight="1"/>
+    <row r="34" customHeight="1"/>
+    <row r="35" customHeight="1"/>
+    <row r="36" customHeight="1"/>
+    <row r="37" customHeight="1"/>
+    <row r="38" customHeight="1"/>
+    <row r="39" customHeight="1"/>
+    <row r="40" customHeight="1"/>
+    <row r="41" customHeight="1"/>
+    <row r="42" customHeight="1"/>
+    <row r="43" customHeight="1"/>
+    <row r="44" customHeight="1"/>
+    <row r="45" customHeight="1"/>
+    <row r="46" customHeight="1"/>
+    <row r="47" customHeight="1"/>
+    <row r="48" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A7:G7"/>
@@ -1115,7 +1672,801 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="34.75" customWidth="1"/>
+    <col min="11" max="11" width="27.125" customWidth="1"/>
+    <col min="12" max="12" width="30.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12630" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
     <sheet name="用户登录" sheetId="2" r:id="rId2"/>
     <sheet name="首页" sheetId="3" r:id="rId3"/>
+    <sheet name="添加-编辑日程页面" sheetId="4" r:id="rId4"/>
+    <sheet name="语音添加" sheetId="5" r:id="rId5"/>
+    <sheet name="添加-编辑组群" sheetId="7" r:id="rId6"/>
+    <sheet name="查询联系人" sheetId="8" r:id="rId7"/>
+    <sheet name="添加-编辑联系人" sheetId="9" r:id="rId8"/>
+    <sheet name="查询日程" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>接口名</t>
   </si>
@@ -157,15 +163,18 @@
     <t>后台信息</t>
   </si>
   <si>
-    <t>登录页</t>
+    <t>登录页（组群页面）</t>
+  </si>
+  <si>
+    <t>UserLoginController</t>
+  </si>
+  <si>
+    <t>accountName</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>accountName</t>
-  </si>
-  <si>
     <t>账号</t>
   </si>
   <si>
@@ -173,6 +182,234 @@
   </si>
   <si>
     <t>accountPasssword</t>
+  </si>
+  <si>
+    <t>查询群组列表信息</t>
+  </si>
+  <si>
+    <t>GroupController</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>currentPage</t>
+  </si>
+  <si>
+    <t>当前页</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>显示页数</t>
+  </si>
+  <si>
+    <t>schedduleParentName</t>
+  </si>
+  <si>
+    <t>事件名称</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>群组ID</t>
+  </si>
+  <si>
+    <t>添加日程页面</t>
+  </si>
+  <si>
+    <t>AddScheduleController</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>ScheduleName</t>
+  </si>
+  <si>
+    <t>日程名称</t>
+  </si>
+  <si>
+    <t>ScheduleStartDate</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>ScheduleFinishDate</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>ScheduleIsuserMoble</t>
+  </si>
+  <si>
+    <t>被指派人手机号</t>
+  </si>
+  <si>
+    <t>ScheduleReminfRepeatType</t>
+  </si>
+  <si>
+    <t>重复提醒类型（1天）</t>
+  </si>
+  <si>
+    <t>ScheduleRemindDate</t>
+  </si>
+  <si>
+    <t>提醒时间</t>
+  </si>
+  <si>
+    <t>ScheduleIsuser</t>
+  </si>
+  <si>
+    <t>发布人</t>
+  </si>
+  <si>
+    <t>assignedFlag</t>
+  </si>
+  <si>
+    <t>是否指派（0是 1 否）</t>
+  </si>
+  <si>
+    <t>completeFlag</t>
+  </si>
+  <si>
+    <t>是否完成（0是 1否）</t>
+  </si>
+  <si>
+    <t>语音输入日程</t>
+  </si>
+  <si>
+    <t>AddVoiceController</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>音频文件（。wav文件）</t>
+  </si>
+  <si>
+    <t>scheduleName</t>
+  </si>
+  <si>
+    <t>scheduleHour</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
+    <t>scheduleMinute</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>scheduleYear</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>schedulemonth</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>scheduleDay</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>scheduleFigure</t>
+  </si>
+  <si>
+    <t>人物</t>
+  </si>
+  <si>
+    <t>schedulePlace</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>听写语音分析原文</t>
+  </si>
+  <si>
+    <t>添加-编辑组群</t>
+  </si>
+  <si>
+    <t>AddGroupController</t>
+  </si>
+  <si>
+    <t>ScheduleParentName</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>组群名</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>userIDS</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>被邀请人id</t>
+  </si>
+  <si>
+    <t>查询联系人</t>
+  </si>
+  <si>
+    <t>SelectContactsController</t>
+  </si>
+  <si>
+    <t>AddressName</t>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+  </si>
+  <si>
+    <t>AddressWay</t>
+  </si>
+  <si>
+    <t>联系人方式</t>
+  </si>
+  <si>
+    <t>添加-编辑联系人</t>
+  </si>
+  <si>
+    <t>AddAndUpdateContactsController</t>
+  </si>
+  <si>
+    <t>联系姓名</t>
+  </si>
+  <si>
+    <t>AddressTypeName</t>
+  </si>
+  <si>
+    <t>分组名</t>
+  </si>
+  <si>
+    <t>编辑日程页面</t>
   </si>
 </sst>
 </file>
@@ -185,7 +422,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,39 +458,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,19 +473,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -295,9 +502,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,9 +525,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +571,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -334,24 +594,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,19 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,25 +676,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,31 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,49 +754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,8 +794,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -631,6 +875,77 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -656,6 +971,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -663,11 +989,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +1019,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -713,17 +1034,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,10 +1048,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,16 +1060,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,119 +1079,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -923,8 +1238,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1292,7 +1655,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1353,16 +1716,16 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1384,16 +1747,16 @@
       <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1409,10 +1772,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="13"/>
@@ -1422,10 +1785,10 @@
       <c r="E10" s="14"/>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -1437,10 +1800,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="9" t="s">
@@ -1612,10 +1975,10 @@
     </row>
     <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="14" t="s">
         <v>32</v>
       </c>
@@ -1627,10 +1990,10 @@
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1683,7 +2046,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1736,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1810,10 +2173,10 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -1834,54 +2197,54 @@
         <v>16</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -1894,10 +2257,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
@@ -2091,10 +2454,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="14" t="s">
         <v>32</v>
       </c>
@@ -2111,10 +2474,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="14" t="s">
         <v>32</v>
       </c>
@@ -2146,10 +2509,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2166,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2179,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2252,131 +2615,157 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
@@ -2389,7 +2778,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2398,19 +2787,447 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15"/>
+      <c r="B28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="15"/>
+      <c r="B29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="28.2583333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="14">
+        <v>20</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2428,43 +3245,2388 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="15"/>
+      <c r="B32" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="15"/>
+      <c r="B33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="33.125" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="15"/>
+      <c r="B35" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15"/>
+      <c r="B36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="15"/>
+      <c r="B35" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15"/>
+      <c r="B36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="15"/>
+      <c r="B35" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="15"/>
+      <c r="B36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="15"/>
+      <c r="B34" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="15"/>
+      <c r="B35" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="14">
+        <v>20</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="15"/>
+      <c r="B30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="15"/>
+      <c r="B31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>接口名</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>登录页</t>
+  </si>
+  <si>
+    <t>/user/login/{Mobile}，password</t>
   </si>
   <si>
     <t>string</t>
@@ -180,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,31 +224,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,14 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +268,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +295,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,45 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,25 +387,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,157 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,30 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -667,7 +646,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -709,6 +677,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,16 +748,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,115 +767,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1682,8 +1685,8 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1754,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1844,16 +1847,16 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="19"/>
@@ -1866,16 +1869,16 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="19"/>
@@ -2148,7 +2151,7 @@
   <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2257,16 +2260,16 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2274,16 +2277,16 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
     <sheet name="用户登录" sheetId="2" r:id="rId2"/>
-    <sheet name="首页" sheetId="3" r:id="rId3"/>
+    <sheet name="日程查询" sheetId="4" r:id="rId3"/>
+    <sheet name="日程创建" sheetId="5" r:id="rId4"/>
+    <sheet name="群组查询" sheetId="6" r:id="rId5"/>
+    <sheet name="首页" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>接口名</t>
   </si>
@@ -160,7 +163,7 @@
     <t>登录页</t>
   </si>
   <si>
-    <t>/user/login/{Mobile}，password</t>
+    <t>/user/login/{Mobile}，{password}</t>
   </si>
   <si>
     <t>string</t>
@@ -176,6 +179,153 @@
   </si>
   <si>
     <t>accountPasssword</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>日程查询</t>
+  </si>
+  <si>
+    <t>GroupController</t>
+  </si>
+  <si>
+    <t>/schedul/find/</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>scheduleExecutor</t>
+  </si>
+  <si>
+    <t>执行人</t>
+  </si>
+  <si>
+    <t>ScheduleOutDto</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>日程创建</t>
+  </si>
+  <si>
+    <t>scheduleName</t>
+  </si>
+  <si>
+    <t>事件名称</t>
+  </si>
+  <si>
+    <t>scheduleDetial</t>
+  </si>
+  <si>
+    <t>事件详情</t>
+  </si>
+  <si>
+    <t>scheduleIssuer</t>
+  </si>
+  <si>
+    <t>发布人id</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>scheduleCreateDate</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>scheduleStartDate</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>scheduleFinshDate</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>scheduledEndDate</t>
+  </si>
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>scheduledState</t>
+  </si>
+  <si>
+    <t>事件状态(-1 未完成 1完成)</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>组群id</t>
+  </si>
+  <si>
+    <t>scheduledMap</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>scheduledRenindDate</t>
+  </si>
+  <si>
+    <t>提醒时间</t>
+  </si>
+  <si>
+    <t>scheduledRenindRepeat</t>
+  </si>
+  <si>
+    <t>重复提醒</t>
+  </si>
+  <si>
+    <t>scheduledRenindRepeatType</t>
+  </si>
+  <si>
+    <t>重复提醒类型SCHEDULE_REMIND_REPEAT_TYPE（1 每日 2 每月 3每年）</t>
+  </si>
+  <si>
+    <t>群组查询</t>
+  </si>
+  <si>
+    <t>/group/login/{userId}</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>GroupDataList</t>
+  </si>
+  <si>
+    <t>群组ID</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>角色ID 1群主 2成员 3发布人 4执行人</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>群组名</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色</t>
   </si>
 </sst>
 </file>
@@ -225,7 +375,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,29 +403,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,17 +424,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,22 +433,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,21 +442,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,9 +457,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,7 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,73 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,13 +579,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +663,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,55 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,26 +792,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,35 +824,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,16 +898,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,115 +917,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1685,8 +1835,8 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1928,9 +2078,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2152,6 +2306,1157 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24" spans="1:7">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="64.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" ht="24" spans="1:7">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="24" spans="1:7">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="63.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,16 @@
     <sheet name="日程查询" sheetId="4" r:id="rId3"/>
     <sheet name="日程创建" sheetId="5" r:id="rId4"/>
     <sheet name="群组查询" sheetId="6" r:id="rId5"/>
-    <sheet name="首页" sheetId="3" r:id="rId6"/>
+    <sheet name="查询单条个人日程信息" sheetId="7" r:id="rId6"/>
+    <sheet name="个人日程编辑" sheetId="8" r:id="rId7"/>
+    <sheet name="首页" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>接口名</t>
   </si>
@@ -151,181 +153,214 @@
     <t>code</t>
   </si>
   <si>
+    <t>0：成功，1：失败,-1后台报错</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>后台信息</t>
+  </si>
+  <si>
+    <t>登录页</t>
+  </si>
+  <si>
+    <t>/user/login/{Mobile}，{password}</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>accountPasssword</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>日程查询</t>
+  </si>
+  <si>
+    <t>GroupController</t>
+  </si>
+  <si>
+    <t>/schedul/find/</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>scheduleExecutor</t>
+  </si>
+  <si>
+    <t>执行人</t>
+  </si>
+  <si>
+    <t>ScheduleOutDto</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>日程创建</t>
+  </si>
+  <si>
+    <t>scheduleName</t>
+  </si>
+  <si>
+    <t>事件名称</t>
+  </si>
+  <si>
+    <t>scheduleDetial</t>
+  </si>
+  <si>
+    <t>事件详情</t>
+  </si>
+  <si>
+    <t>scheduleIssuer</t>
+  </si>
+  <si>
+    <t>发布人id</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>scheduleCreateDate</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>scheduleStartDate</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>scheduleFinshDate</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>scheduledEndDate</t>
+  </si>
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>scheduledState</t>
+  </si>
+  <si>
+    <t>事件状态(-1 未完成 1完成)</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>组群id</t>
+  </si>
+  <si>
+    <t>scheduledMap</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>scheduledRenindDate</t>
+  </si>
+  <si>
+    <t>提醒时间</t>
+  </si>
+  <si>
+    <t>scheduledRenindRepeat</t>
+  </si>
+  <si>
+    <t>重复提醒</t>
+  </si>
+  <si>
+    <t>scheduledRenindRepeatType</t>
+  </si>
+  <si>
+    <t>重复提醒类型SCHEDULE_REMIND_REPEAT_TYPE（1 每日 2 每月 3每年）</t>
+  </si>
+  <si>
+    <t>群组查询</t>
+  </si>
+  <si>
+    <t>/group/login/{userId}</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>GroupDataList</t>
+  </si>
+  <si>
+    <t>群组ID</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>角色ID 1群主 2成员 3发布人 4执行人</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>群组名</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>查询单条个人日程信息</t>
+  </si>
+  <si>
+    <t>ScheduleController</t>
+  </si>
+  <si>
+    <t>/schedule/findScheduleByOne/{scheduledId}</t>
+  </si>
+  <si>
+    <t>scheduledId</t>
+  </si>
+  <si>
+    <t>事件id</t>
+  </si>
+  <si>
+    <t>ScheduleData</t>
+  </si>
+  <si>
+    <t>/schedule/updateSchedule</t>
+  </si>
+  <si>
+    <t>ScheduleInDto</t>
+  </si>
+  <si>
+    <t>inDto</t>
+  </si>
+  <si>
+    <t>事件类</t>
+  </si>
+  <si>
     <t>1：成功，2：失败</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>后台信息</t>
-  </si>
-  <si>
-    <t>登录页</t>
-  </si>
-  <si>
-    <t>/user/login/{Mobile}，{password}</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>accountName</t>
-  </si>
-  <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>accountPasssword</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>日程查询</t>
-  </si>
-  <si>
-    <t>GroupController</t>
-  </si>
-  <si>
-    <t>/schedul/find/</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>scheduleExecutor</t>
-  </si>
-  <si>
-    <t>执行人</t>
-  </si>
-  <si>
-    <t>ScheduleOutDto</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>日程创建</t>
-  </si>
-  <si>
-    <t>scheduleName</t>
-  </si>
-  <si>
-    <t>事件名称</t>
-  </si>
-  <si>
-    <t>scheduleDetial</t>
-  </si>
-  <si>
-    <t>事件详情</t>
-  </si>
-  <si>
-    <t>scheduleIssuer</t>
-  </si>
-  <si>
-    <t>发布人id</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>scheduleCreateDate</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>scheduleStartDate</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>scheduleFinshDate</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>scheduledEndDate</t>
-  </si>
-  <si>
-    <t>截止时间</t>
-  </si>
-  <si>
-    <t>scheduledState</t>
-  </si>
-  <si>
-    <t>事件状态(-1 未完成 1完成)</t>
-  </si>
-  <si>
-    <t>groupId</t>
-  </si>
-  <si>
-    <t>组群id</t>
-  </si>
-  <si>
-    <t>scheduledMap</t>
-  </si>
-  <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>scheduledRenindDate</t>
-  </si>
-  <si>
-    <t>提醒时间</t>
-  </si>
-  <si>
-    <t>scheduledRenindRepeat</t>
-  </si>
-  <si>
-    <t>重复提醒</t>
-  </si>
-  <si>
-    <t>scheduledRenindRepeatType</t>
-  </si>
-  <si>
-    <t>重复提醒类型SCHEDULE_REMIND_REPEAT_TYPE（1 每日 2 每月 3每年）</t>
-  </si>
-  <si>
-    <t>群组查询</t>
-  </si>
-  <si>
-    <t>/group/login/{userId}</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>GroupDataList</t>
-  </si>
-  <si>
-    <t>群组ID</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>角色ID 1群主 2成员 3发布人 4执行人</t>
-  </si>
-  <si>
-    <t>groupName</t>
-  </si>
-  <si>
-    <t>群组名</t>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <t>角色</t>
   </si>
 </sst>
 </file>
@@ -333,8 +368,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -375,63 +410,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -447,9 +439,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,7 +462,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,11 +507,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,8 +523,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +572,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +620,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,25 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +716,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,85 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,15 +818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -807,6 +833,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -818,17 +853,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,8 +874,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -861,7 +887,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,16 +906,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,16 +933,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,13 +952,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,100 +973,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,7 +1480,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1455,7 +1490,7 @@
     <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
     <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="38.375" style="2" customWidth="1"/>
@@ -1836,7 +1871,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1845,7 +1880,7 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
     <col min="10" max="10" width="34.75" customWidth="1"/>
     <col min="11" max="11" width="27.125" customWidth="1"/>
@@ -2306,7 +2341,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2314,6 +2349,7 @@
     <col min="2" max="2" width="35.875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2578,7 +2614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="24" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
         <v>42</v>
@@ -2628,7 +2664,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G35"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2783,7 +2819,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" ht="24" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -3065,7 +3101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="24" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="15"/>
       <c r="B34" s="16" t="s">
         <v>42</v>
@@ -3114,8 +3150,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3452,6 +3488,481 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G24"/>
@@ -3746,7 +4257,7 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="G23" s="14"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>接口名</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>重复提醒类型SCHEDULE_REMIND_REPEAT_TYPE（1 每日 2 每月 3每年）</t>
+  </si>
+  <si>
+    <t>flagCreateGroup</t>
+  </si>
+  <si>
+    <t>是否创建群组（0否 1是）</t>
+  </si>
+  <si>
+    <t>flagFocus</t>
+  </si>
+  <si>
+    <t>是否关注（0否 1是）</t>
   </si>
   <si>
     <t>群组查询</t>
@@ -370,8 +382,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -410,30 +422,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +443,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,6 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -462,7 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,7 +496,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +512,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,47 +542,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +584,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,19 +674,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,151 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,17 +830,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,7 +843,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,36 +879,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,8 +911,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,10 +933,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,16 +945,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,115 +964,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2661,10 +2673,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2970,52 +2982,64 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="13"/>
@@ -3063,7 +3087,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -3072,73 +3096,91 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="9" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="14" t="s">
+      <c r="C37" s="16"/>
+      <c r="D37" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3176,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3202,7 +3244,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3215,7 +3257,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3270,7 +3312,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>64</v>
@@ -3310,7 +3352,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
@@ -3331,7 +3373,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -3343,7 +3385,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>39</v>
@@ -3358,10 +3400,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -3373,10 +3415,10 @@
         <v>32</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -3388,10 +3430,10 @@
         <v>29</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -3509,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3522,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3535,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3548,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3603,10 +3645,10 @@
         <v>29</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -3643,7 +3685,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="13"/>
       <c r="B11" s="14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
@@ -3732,7 +3774,7 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3748,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3761,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3774,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3839,13 +3881,13 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -4257,7 +4299,7 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G23" s="14"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>接口名</t>
   </si>
@@ -213,6 +213,15 @@
     <t>日程创建</t>
   </si>
   <si>
+    <t>/schedule/create/</t>
+  </si>
+  <si>
+    <t>inDto</t>
+  </si>
+  <si>
+    <t>ScheduleInDto</t>
+  </si>
+  <si>
     <t>scheduleName</t>
   </si>
   <si>
@@ -231,12 +240,12 @@
     <t>发布人id</t>
   </si>
   <si>
+    <t>scheduleCreateDate</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>scheduleCreateDate</t>
-  </si>
-  <si>
     <t>创建时间</t>
   </si>
   <si>
@@ -361,12 +370,6 @@
   </si>
   <si>
     <t>/schedule/updateSchedule</t>
-  </si>
-  <si>
-    <t>ScheduleInDto</t>
-  </si>
-  <si>
-    <t>inDto</t>
   </si>
   <si>
     <t>事件类</t>
@@ -381,9 +384,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -422,7 +425,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,12 +447,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -457,21 +523,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -481,69 +532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,6 +541,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,31 +653,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,67 +737,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,37 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,20 +833,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,32 +893,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,6 +907,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,10 +936,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,16 +948,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,119 +967,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1125,6 +1128,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1492,7 +1505,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1553,16 +1566,16 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1584,16 +1597,16 @@
       <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1609,10 +1622,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="13"/>
@@ -1622,10 +1635,10 @@
       <c r="E10" s="14"/>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -1637,10 +1650,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="9" t="s">
@@ -2010,10 +2023,10 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -2034,10 +2047,10 @@
         <v>16</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13"/>
@@ -2056,10 +2069,10 @@
         <v>51</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13"/>
@@ -2078,10 +2091,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -2094,10 +2107,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
@@ -2673,15 +2686,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="64.5" customWidth="1"/>
   </cols>
@@ -2726,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2787,60 +2802,58 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>64</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="D11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="D12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>70</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="14" t="s">
         <v>71</v>
       </c>
@@ -2849,215 +2862,221 @@
     <row r="13" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>72</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>74</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="D15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="D16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="D17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="D19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="D21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="D22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" ht="24" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="9" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="13"/>
@@ -3105,7 +3124,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="14"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -3114,73 +3133,91 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="9" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="14" t="s">
+      <c r="C38" s="16"/>
+      <c r="D38" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="s">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="14" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="s">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3193,7 +3230,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3218,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3244,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3257,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3312,10 +3349,10 @@
         <v>29</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G9" s="15"/>
     </row>
@@ -3352,7 +3389,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
@@ -3365,28 +3402,28 @@
     <row r="13" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="D14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="14" t="s">
         <v>39</v>
       </c>
@@ -3395,45 +3432,45 @@
     <row r="15" spans="1:7">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="D17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -3535,7 +3572,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3551,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3564,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3577,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3590,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3645,10 +3682,10 @@
         <v>29</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -3685,7 +3722,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="13"/>
       <c r="B11" s="14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
@@ -3774,8 +3811,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3790,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3803,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3816,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3881,13 +3918,13 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="15"/>
     </row>
@@ -4299,7 +4336,7 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="14"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="群组查询" sheetId="6" r:id="rId5"/>
     <sheet name="查询单条个人日程信息" sheetId="7" r:id="rId6"/>
     <sheet name="个人日程编辑" sheetId="8" r:id="rId7"/>
-    <sheet name="首页" sheetId="3" r:id="rId8"/>
+    <sheet name="个人关注表创建" sheetId="9" r:id="rId8"/>
+    <sheet name="首页" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>接口名</t>
   </si>
@@ -189,135 +190,138 @@
     <t>日程查询</t>
   </si>
   <si>
+    <t>ScheduleController</t>
+  </si>
+  <si>
+    <t>/schedul/find/</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>scheduleExecutor</t>
+  </si>
+  <si>
+    <t>执行人</t>
+  </si>
+  <si>
+    <t>ScheduleOutDto</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>日程创建</t>
+  </si>
+  <si>
+    <t>/schedule/create/</t>
+  </si>
+  <si>
+    <t>inDto</t>
+  </si>
+  <si>
+    <t>ScheduleInDto</t>
+  </si>
+  <si>
+    <t>scheduleName</t>
+  </si>
+  <si>
+    <t>事件名称</t>
+  </si>
+  <si>
+    <t>scheduleDetial</t>
+  </si>
+  <si>
+    <t>事件详情</t>
+  </si>
+  <si>
+    <t>scheduleIssuer</t>
+  </si>
+  <si>
+    <t>发布人id</t>
+  </si>
+  <si>
+    <t>scheduleCreateDate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>scheduleStartDate</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>scheduleFinshDate</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>scheduledEndDate</t>
+  </si>
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>scheduledState</t>
+  </si>
+  <si>
+    <t>事件状态(-1 未完成 1完成)</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>组群id</t>
+  </si>
+  <si>
+    <t>scheduledMap</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>scheduledRenindDate</t>
+  </si>
+  <si>
+    <t>提醒时间</t>
+  </si>
+  <si>
+    <t>scheduledRenindRepeat</t>
+  </si>
+  <si>
+    <t>重复提醒</t>
+  </si>
+  <si>
+    <t>scheduledRenindRepeatType</t>
+  </si>
+  <si>
+    <t>重复提醒类型SCHEDULE_REMIND_REPEAT_TYPE（1 每日 2 每月 3每年）</t>
+  </si>
+  <si>
+    <t>flagCreateGroup</t>
+  </si>
+  <si>
+    <t>是否创建群组（0否 1是）</t>
+  </si>
+  <si>
+    <t>flagFocus</t>
+  </si>
+  <si>
+    <t>是否关注（0否 1是）</t>
+  </si>
+  <si>
+    <t>群组查询</t>
+  </si>
+  <si>
     <t>GroupController</t>
   </si>
   <si>
-    <t>/schedul/find/</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>scheduleExecutor</t>
-  </si>
-  <si>
-    <t>执行人</t>
-  </si>
-  <si>
-    <t>ScheduleOutDto</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>日程创建</t>
-  </si>
-  <si>
-    <t>/schedule/create/</t>
-  </si>
-  <si>
-    <t>inDto</t>
-  </si>
-  <si>
-    <t>ScheduleInDto</t>
-  </si>
-  <si>
-    <t>scheduleName</t>
-  </si>
-  <si>
-    <t>事件名称</t>
-  </si>
-  <si>
-    <t>scheduleDetial</t>
-  </si>
-  <si>
-    <t>事件详情</t>
-  </si>
-  <si>
-    <t>scheduleIssuer</t>
-  </si>
-  <si>
-    <t>发布人id</t>
-  </si>
-  <si>
-    <t>scheduleCreateDate</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>scheduleStartDate</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>scheduleFinshDate</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>scheduledEndDate</t>
-  </si>
-  <si>
-    <t>截止时间</t>
-  </si>
-  <si>
-    <t>scheduledState</t>
-  </si>
-  <si>
-    <t>事件状态(-1 未完成 1完成)</t>
-  </si>
-  <si>
-    <t>groupId</t>
-  </si>
-  <si>
-    <t>组群id</t>
-  </si>
-  <si>
-    <t>scheduledMap</t>
-  </si>
-  <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>scheduledRenindDate</t>
-  </si>
-  <si>
-    <t>提醒时间</t>
-  </si>
-  <si>
-    <t>scheduledRenindRepeat</t>
-  </si>
-  <si>
-    <t>重复提醒</t>
-  </si>
-  <si>
-    <t>scheduledRenindRepeatType</t>
-  </si>
-  <si>
-    <t>重复提醒类型SCHEDULE_REMIND_REPEAT_TYPE（1 每日 2 每月 3每年）</t>
-  </si>
-  <si>
-    <t>flagCreateGroup</t>
-  </si>
-  <si>
-    <t>是否创建群组（0否 1是）</t>
-  </si>
-  <si>
-    <t>flagFocus</t>
-  </si>
-  <si>
-    <t>是否关注（0否 1是）</t>
-  </si>
-  <si>
-    <t>群组查询</t>
-  </si>
-  <si>
     <t>/group/login/{userId}</t>
   </si>
   <si>
@@ -354,9 +358,6 @@
     <t>查询单条个人日程信息</t>
   </si>
   <si>
-    <t>ScheduleController</t>
-  </si>
-  <si>
     <t>/schedule/findScheduleByOne/{scheduledId}</t>
   </si>
   <si>
@@ -373,6 +374,24 @@
   </si>
   <si>
     <t>事件类</t>
+  </si>
+  <si>
+    <t>FocusController</t>
+  </si>
+  <si>
+    <t>/gtd/focus/createFocus/</t>
+  </si>
+  <si>
+    <t>focusAllId</t>
+  </si>
+  <si>
+    <t>关注ID（组群，日程，用户）</t>
+  </si>
+  <si>
+    <t>focusType</t>
+  </si>
+  <si>
+    <t>关注类型（1组群，2日程，3用户）</t>
   </si>
   <si>
     <t>1：成功，2：失败</t>
@@ -384,8 +403,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -424,13 +443,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -441,6 +453,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,10 +480,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,9 +495,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,49 +557,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,14 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,13 +606,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,25 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +696,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +738,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,97 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +852,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -844,6 +878,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,17 +906,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,18 +932,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,27 +949,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,16 +967,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,119 +986,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1130,9 +1149,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1566,16 +1582,16 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1597,16 +1613,16 @@
       <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1622,10 +1638,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="13"/>
@@ -1635,10 +1651,10 @@
       <c r="E10" s="14"/>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -1650,10 +1666,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="9" t="s">
@@ -2023,10 +2039,10 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -2047,10 +2063,10 @@
         <v>16</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13"/>
@@ -2069,10 +2085,10 @@
         <v>51</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13"/>
@@ -2091,10 +2107,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -2107,10 +2123,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
@@ -2366,7 +2382,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A1" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2689,7 +2705,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3009,7 +3025,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" ht="24" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
@@ -3040,13 +3056,13 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
@@ -3268,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3281,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3294,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3349,7 +3365,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>67</v>
@@ -3389,7 +3405,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="13"/>
       <c r="B12" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
@@ -3410,7 +3426,7 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -3418,7 +3434,7 @@
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>29</v>
@@ -3433,14 +3449,14 @@
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -3448,14 +3464,14 @@
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -3463,14 +3479,14 @@
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -3572,7 +3588,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3588,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3601,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3627,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3811,13 +3827,13 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
@@ -3827,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3840,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4042,6 +4058,347 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="36" spans="1:7">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G24"/>
@@ -4336,7 +4693,7 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G23" s="14"/>
     </row>

--- a/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
+++ b/A-开发相关文档素材/1.一期接口文档/后端接口文档.xlsx
@@ -4,25 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13050" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="用户账户查询" sheetId="1" r:id="rId1"/>
     <sheet name="用户登录" sheetId="2" r:id="rId2"/>
     <sheet name="日程查询" sheetId="4" r:id="rId3"/>
-    <sheet name="日程创建" sheetId="5" r:id="rId4"/>
-    <sheet name="群组查询" sheetId="6" r:id="rId5"/>
-    <sheet name="查询单条个人日程信息" sheetId="7" r:id="rId6"/>
-    <sheet name="个人日程编辑" sheetId="8" r:id="rId7"/>
-    <sheet name="个人关注表创建" sheetId="9" r:id="rId8"/>
-    <sheet name="首页" sheetId="3" r:id="rId9"/>
+    <sheet name="用户注册" sheetId="10" r:id="rId4"/>
+    <sheet name="日程创建" sheetId="5" r:id="rId5"/>
+    <sheet name="群组查询" sheetId="6" r:id="rId6"/>
+    <sheet name="查询单条个人日程信息" sheetId="7" r:id="rId7"/>
+    <sheet name="个人日程编辑" sheetId="8" r:id="rId8"/>
+    <sheet name="个人关注表创建" sheetId="9" r:id="rId9"/>
+    <sheet name="首页" sheetId="3" r:id="rId10"/>
+    <sheet name="群组日程查询" sheetId="11" r:id="rId11"/>
+    <sheet name="根据日程ID和USERID查询日程表和执行表" sheetId="12" r:id="rId12"/>
+    <sheet name="新建群组下日程" sheetId="13" r:id="rId13"/>
+    <sheet name="个人日历日程查询" sheetId="14" r:id="rId14"/>
+    <sheet name="个人日程修改" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>接口名</t>
   </si>
@@ -166,7 +172,10 @@
     <t>登录页</t>
   </si>
   <si>
-    <t>/user/login/{Mobile}，{password}</t>
+    <t>/user/login/</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>string</t>
@@ -196,9 +205,6 @@
     <t>/schedul/find/</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>scheduleExecutor</t>
   </si>
   <si>
@@ -211,15 +217,72 @@
     <t>List</t>
   </si>
   <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>/gtd/user/signin/</t>
+  </si>
+  <si>
+    <t>inDto</t>
+  </si>
+  <si>
+    <t>UserInfoInDto</t>
+  </si>
+  <si>
+    <t>accountPassword</t>
+  </si>
+  <si>
+    <t>accountMobile</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>userSex</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>userBirthday</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t>realName</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>idNumber</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>userHead</t>
+  </si>
+  <si>
+    <t>头像URL</t>
+  </si>
+  <si>
     <t>日程创建</t>
   </si>
   <si>
     <t>/schedule/create/</t>
   </si>
   <si>
-    <t>inDto</t>
-  </si>
-  <si>
     <t>ScheduleInDto</t>
   </si>
   <si>
@@ -244,9 +307,6 @@
     <t>scheduleCreateDate</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>创建时间</t>
   </si>
   <si>
@@ -331,6 +391,9 @@
     <t>userId</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>GroupDataList</t>
   </si>
   <si>
@@ -394,7 +457,97 @@
     <t>关注类型（1组群，2日程，3用户）</t>
   </si>
   <si>
+    <t>/user/find/</t>
+  </si>
+  <si>
     <t>1：成功，2：失败</t>
+  </si>
+  <si>
+    <t>群组日程查询</t>
+  </si>
+  <si>
+    <t>/schedule/findSchByGroup/{groupId}</t>
+  </si>
+  <si>
+    <t>ScheduleDataList</t>
+  </si>
+  <si>
+    <t>scheduleId</t>
+  </si>
+  <si>
+    <t>事件名</t>
+  </si>
+  <si>
+    <t>scheduleDetail</t>
+  </si>
+  <si>
+    <t>发布人</t>
+  </si>
+  <si>
+    <t>scheduleFinishDate</t>
+  </si>
+  <si>
+    <t>scheduleEndDate</t>
+  </si>
+  <si>
+    <t>scheduleState</t>
+  </si>
+  <si>
+    <t>scheduleMap</t>
+  </si>
+  <si>
+    <t>scheduleRemindDate</t>
+  </si>
+  <si>
+    <t>scheduleRemindRepeat</t>
+  </si>
+  <si>
+    <t>scheduleRemindRepeatType</t>
+  </si>
+  <si>
+    <t>重复提醒类型（1 每日 2 每月 3每年）</t>
+  </si>
+  <si>
+    <t>scheduleEditDate</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>/schedule/findSchAndExcu/{scheduleId}/{userId}</t>
+  </si>
+  <si>
+    <t>日程ID</t>
+  </si>
+  <si>
+    <t>scheduleIssuerName</t>
+  </si>
+  <si>
+    <t>发布人姓名</t>
+  </si>
+  <si>
+    <t>群组下日程创建</t>
+  </si>
+  <si>
+    <t>/schedule/createII/</t>
+  </si>
+  <si>
+    <t>个人日历日程查询</t>
+  </si>
+  <si>
+    <t>/schedule/createschbycalendar/{date}/{userId}</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>Scheduledata</t>
+  </si>
+  <si>
+    <t>/schedule/updateExecutorSchedule</t>
   </si>
 </sst>
 </file>
@@ -402,12 +555,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,9 +596,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +624,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +653,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +669,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,31 +697,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,24 +712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,14 +730,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,19 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +789,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,31 +921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,43 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,6 +1017,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -882,15 +1076,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -910,7 +1095,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,36 +1114,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,16 +1132,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,119 +1151,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1136,24 +1301,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1518,24 +1696,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="11.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="38.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="18.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38.375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1"/>
@@ -1572,7 +1750,7 @@
       </c>
     </row>
     <row r="6" customHeight="1"/>
-    <row r="7" customHeight="1" spans="1:12">
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1581,82 +1759,86 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="I7" s="20" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="K7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="M7" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:12">
+    <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="K8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="M8" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:12">
+      <c r="H10" s="14"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1665,209 +1847,224 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="13" t="s">
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="11"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="15"/>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="14"/>
       <c r="B24" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="15"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="14"/>
       <c r="B25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" customHeight="1"/>
     <row r="27" customHeight="1"/>
@@ -1894,14 +2091,2720 @@
     <row r="48" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="14"/>
+      <c r="B24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="7" max="7" width="40.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" ht="24" spans="1:8">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="24" spans="1:8">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="36" spans="1:8">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14"/>
+      <c r="B35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" ht="36" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" ht="24" spans="1:8">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" ht="24" spans="1:8">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="24" spans="1:8">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:8">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1912,7 +4815,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2001,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2039,10 +4942,10 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
@@ -2063,54 +4966,54 @@
         <v>16</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
@@ -2123,10 +5026,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
@@ -2153,17 +5056,17 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2171,13 +5074,13 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2185,13 +5088,13 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2199,13 +5102,13 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2213,13 +5116,13 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2227,13 +5130,13 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2241,13 +5144,13 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2255,13 +5158,13 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2269,13 +5172,13 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2323,19 +5226,19 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2343,19 +5246,19 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2382,7 +5285,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G24"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2407,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2420,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2433,7 +5336,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2446,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2494,20 +5397,20 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>51</v>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2541,89 +5444,89 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -2656,34 +5559,34 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2702,10 +5605,436 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="12" customHeight="1" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="12" customHeight="1" spans="1:13">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A26" s="14"/>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="12" customHeight="1" spans="1:8">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2731,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2744,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2757,7 +6086,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2770,7 +6099,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2818,251 +6147,251 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="15"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="15"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="15"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="15"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
@@ -3095,76 +6424,76 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="s">
@@ -3197,34 +6526,34 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
+      <c r="D38" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="16"/>
-      <c r="D39" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
+      <c r="D39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3240,24 +6569,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="63.125" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="32.875" customWidth="1"/>
+    <col min="7" max="7" width="63.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3265,60 +6594,65 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3326,8 +6660,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -3336,9 +6671,10 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -3347,32 +6683,35 @@
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -3381,9 +6720,10 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -3392,123 +6732,132 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E17" s="13"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>40</v>
       </c>
@@ -3516,10 +6865,11 @@
       <c r="C20" s="7"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="9" t="s">
         <v>41</v>
       </c>
@@ -3528,51 +6878,54 @@
       <c r="D21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="15"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="14"/>
       <c r="B22" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="14"/>
       <c r="B23" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
+      <c r="D23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
@@ -3582,76 +6935,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="4" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3659,8 +7016,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -3669,9 +7027,10 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -3680,32 +7039,35 @@
       <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3714,9 +7076,10 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -3725,30 +7088,32 @@
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
@@ -3756,10 +7121,11 @@
       <c r="C12" s="7"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
@@ -3768,286 +7134,54 @@
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14"/>
       <c r="B14" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
@@ -4060,338 +7194,246 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="4" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7">
+    <row r="8" spans="1:8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="36" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="H15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4401,325 +7443,360 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="38.125" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="14"/>
+      <c r="B24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="14"/>
+      <c r="B25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="H25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
